--- a/app/Licenciatura_Em_Engenharia_do_Ambiente_Pos_Laboral.xlsx
+++ b/app/Licenciatura_Em_Engenharia_do_Ambiente_Pos_Laboral.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -207,9 +207,6 @@
     <t>Marcelina Hofisso Machava</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>Arminda Da ConceiÇÃo</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>Solteiro</t>
   </si>
   <si>
@@ -300,9 +294,6 @@
     <t>Amelia Thai</t>
   </si>
   <si>
-    <t>Distrito de Manjacaze</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -330,9 +321,6 @@
     <t>Esperanca A. Chirinda</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>110101990403I</t>
   </si>
   <si>
@@ -381,9 +369,6 @@
     <t>Judite Jose Chabane</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110100664362C</t>
   </si>
   <si>
@@ -621,9 +606,6 @@
     <t>Ernestina Lapis Lencol Mi</t>
   </si>
   <si>
-    <t>Cidade de Tete</t>
-  </si>
-  <si>
     <t>070100537235I</t>
   </si>
   <si>
@@ -648,9 +630,6 @@
     <t>Laurinda J. Da S. Macheve</t>
   </si>
   <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
-  </si>
-  <si>
     <t>100102491479F</t>
   </si>
   <si>
@@ -720,9 +699,6 @@
     <t>Isabel Tovela</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamaxaquene</t>
-  </si>
-  <si>
     <t>110304840799J</t>
   </si>
   <si>
@@ -918,9 +894,6 @@
     <t>Luisa Fernando Cossa</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>+258828268437</t>
   </si>
   <si>
@@ -1069,9 +1042,6 @@
   </si>
   <si>
     <t>AliÇe Gaua</t>
-  </si>
-  <si>
-    <t>Distrito de Moamba</t>
   </si>
   <si>
     <t>041301150925B</t>
@@ -2379,7 +2349,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2395,7 +2365,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2411,7 +2381,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2427,7 +2397,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2443,7 +2413,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2458,9 +2428,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2468,7 +2436,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2479,7 +2447,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2488,7 +2456,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2500,7 +2468,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2604,7 +2572,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2647,7 +2615,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2974,7 +2942,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2990,7 +2958,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3006,7 +2974,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3022,7 +2990,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3038,7 +3006,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3053,9 +3021,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3063,7 +3029,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3074,7 +3040,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3083,7 +3049,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3095,7 +3061,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3103,7 +3069,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3199,7 +3165,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3242,7 +3208,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3569,7 +3535,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3585,7 +3551,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3601,7 +3567,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3617,7 +3583,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3633,7 +3599,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3648,9 +3614,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3658,7 +3622,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3669,7 +3633,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3678,7 +3642,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3690,7 +3654,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3698,7 +3662,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3794,7 +3758,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3837,7 +3801,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4164,7 +4128,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4180,7 +4144,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4196,7 +4160,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4212,7 +4176,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4228,7 +4192,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4243,9 +4207,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4253,7 +4215,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4264,7 +4226,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4273,7 +4235,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4285,7 +4247,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4293,7 +4255,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4389,7 +4351,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4432,7 +4394,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4759,7 +4721,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4775,7 +4737,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4791,7 +4753,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4807,7 +4769,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4823,7 +4785,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4838,9 +4800,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4848,7 +4808,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4859,7 +4819,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4868,7 +4828,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4880,7 +4840,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4888,7 +4848,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4984,7 +4944,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5027,7 +4987,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5354,7 +5314,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5370,7 +5330,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5386,7 +5346,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5402,7 +5362,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -5418,7 +5378,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -5433,9 +5393,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5443,7 +5401,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5454,7 +5412,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5463,7 +5421,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5475,7 +5433,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5483,7 +5441,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -5579,7 +5537,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5622,7 +5580,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5949,7 +5907,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5965,7 +5923,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5981,7 +5939,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -5997,7 +5955,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6013,7 +5971,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6028,9 +5986,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6038,7 +5994,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6049,7 +6005,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6058,7 +6014,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6070,7 +6026,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6078,7 +6034,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6174,7 +6130,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6217,7 +6173,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6544,7 +6500,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6560,7 +6516,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6576,7 +6532,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6592,7 +6548,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6608,7 +6564,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6623,9 +6579,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6633,7 +6587,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6644,7 +6598,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6653,7 +6607,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6665,7 +6619,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6673,7 +6627,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6769,7 +6723,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6812,7 +6766,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7139,7 +7093,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7155,7 +7109,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7171,7 +7125,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7187,7 +7141,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7203,7 +7157,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7218,9 +7172,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>187</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7228,7 +7180,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7239,7 +7191,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7248,7 +7200,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7260,7 +7212,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7268,7 +7220,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7364,7 +7316,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7407,7 +7359,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7734,7 +7686,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7750,7 +7702,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7766,7 +7718,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7782,7 +7734,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7798,7 +7750,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7813,9 +7765,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>196</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7823,7 +7773,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7834,7 +7784,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7843,7 +7793,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7855,7 +7805,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7863,7 +7813,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7959,7 +7909,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8002,7 +7952,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8408,9 +8358,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8418,7 +8366,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8429,7 +8377,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8438,7 +8386,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8450,7 +8398,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8458,7 +8406,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8554,7 +8502,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8597,7 +8545,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8924,7 +8872,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8940,7 +8888,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8956,7 +8904,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8972,7 +8920,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8988,7 +8936,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9003,9 +8951,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9013,7 +8959,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9024,7 +8970,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9033,7 +8979,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9045,7 +8991,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9053,7 +8999,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9149,7 +9095,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9192,7 +9138,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9519,7 +9465,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9535,7 +9481,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9551,7 +9497,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9567,7 +9513,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9583,7 +9529,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9598,9 +9544,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9608,7 +9552,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9619,7 +9563,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9628,7 +9572,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9640,7 +9584,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9648,7 +9592,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9744,7 +9688,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9787,7 +9731,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10114,7 +10058,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10130,7 +10074,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10146,7 +10090,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10162,7 +10106,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10178,7 +10122,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10193,9 +10137,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>220</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10203,7 +10145,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10214,7 +10156,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10223,7 +10165,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10235,7 +10177,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10243,7 +10185,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10339,7 +10281,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10382,7 +10324,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10709,7 +10651,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10725,7 +10667,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10741,7 +10683,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10757,7 +10699,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10773,7 +10715,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10788,9 +10730,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10798,7 +10738,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10809,7 +10749,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10818,7 +10758,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10830,7 +10770,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10838,7 +10778,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10934,7 +10874,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10977,7 +10917,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11304,7 +11244,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11320,7 +11260,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11336,7 +11276,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11352,7 +11292,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11368,7 +11308,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11383,9 +11323,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11393,7 +11331,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11404,7 +11342,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11413,7 +11351,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11425,7 +11363,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11433,7 +11371,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11529,7 +11467,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11572,7 +11510,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11899,7 +11837,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11915,7 +11853,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11931,7 +11869,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11947,7 +11885,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11963,7 +11901,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11978,9 +11916,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11988,7 +11924,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11999,7 +11935,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12008,7 +11944,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12020,7 +11956,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12028,7 +11964,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12124,7 +12060,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12167,7 +12103,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12494,7 +12430,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12510,7 +12446,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12526,7 +12462,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12542,7 +12478,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12558,7 +12494,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12573,9 +12509,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12583,7 +12517,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12594,7 +12528,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12603,7 +12537,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12615,7 +12549,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12623,7 +12557,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12719,7 +12653,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12762,7 +12696,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13089,7 +13023,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13105,7 +13039,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13296,7 +13230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13662,7 +13596,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13678,7 +13612,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13694,7 +13628,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13710,7 +13644,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13726,7 +13660,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13741,9 +13675,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13751,7 +13683,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13762,7 +13694,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13771,7 +13703,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13783,7 +13715,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13791,7 +13723,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13887,7 +13819,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13930,7 +13862,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14257,7 +14189,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14273,7 +14205,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14289,7 +14221,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14305,7 +14237,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14321,7 +14253,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14336,9 +14268,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14346,7 +14276,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14357,7 +14287,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14366,7 +14296,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14378,7 +14308,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14386,7 +14316,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14482,7 +14412,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14525,7 +14455,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14852,7 +14782,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14868,7 +14798,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14884,7 +14814,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14900,7 +14830,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14916,7 +14846,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14931,9 +14861,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14941,7 +14869,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14952,7 +14880,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14961,7 +14889,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14973,7 +14901,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14981,7 +14909,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15077,7 +15005,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15120,7 +15048,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15447,7 +15375,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15463,7 +15391,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15479,7 +15407,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15495,7 +15423,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15511,7 +15439,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15526,9 +15454,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15536,7 +15462,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15547,7 +15473,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15556,7 +15482,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15568,7 +15494,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15576,7 +15502,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15672,7 +15598,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15715,7 +15641,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16042,7 +15968,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16058,7 +15984,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16074,7 +16000,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16090,7 +16016,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16106,7 +16032,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16121,9 +16047,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16131,7 +16055,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16142,7 +16066,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16151,7 +16075,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16163,7 +16087,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16171,7 +16095,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16267,7 +16191,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16310,7 +16234,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16637,7 +16561,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -16653,7 +16577,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -16669,7 +16593,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -16685,7 +16609,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -16701,7 +16625,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -16716,9 +16640,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>286</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -16726,7 +16648,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -16737,7 +16659,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -16746,7 +16668,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -16758,7 +16680,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -16862,7 +16784,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16905,7 +16827,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17232,7 +17154,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17248,7 +17170,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17264,7 +17186,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17280,7 +17202,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17296,7 +17218,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17311,9 +17233,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17321,7 +17241,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17332,7 +17252,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17341,7 +17261,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17353,7 +17273,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17361,7 +17281,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17457,7 +17377,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17500,7 +17420,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17827,7 +17747,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17843,7 +17763,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17859,7 +17779,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17875,7 +17795,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17891,7 +17811,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17906,9 +17826,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17916,7 +17834,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17927,7 +17845,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17936,7 +17854,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17948,7 +17866,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17956,7 +17874,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18052,7 +17970,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18095,7 +18013,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18422,7 +18340,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18438,7 +18356,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18454,7 +18372,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18470,7 +18388,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18486,7 +18404,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18501,9 +18419,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18511,7 +18427,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18522,7 +18438,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18531,7 +18447,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18543,7 +18459,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18551,7 +18467,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18647,7 +18563,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18690,7 +18606,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19017,7 +18933,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19033,7 +18949,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19049,7 +18965,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19065,7 +18981,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19081,7 +18997,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19096,9 +19012,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19106,7 +19020,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19117,7 +19031,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19126,7 +19040,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19138,7 +19052,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19146,7 +19060,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19242,7 +19156,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19285,7 +19199,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19612,7 +19526,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19628,7 +19542,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19644,7 +19558,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19660,7 +19574,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -19676,7 +19590,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -19691,9 +19605,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -19701,7 +19613,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -19712,7 +19624,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -19721,7 +19633,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -19733,7 +19645,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -19741,7 +19653,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19837,7 +19749,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19880,7 +19792,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20207,7 +20119,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20223,7 +20135,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20239,7 +20151,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20255,7 +20167,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20271,7 +20183,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20286,9 +20198,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20296,7 +20206,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20307,7 +20217,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20316,7 +20226,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20328,7 +20238,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20336,7 +20246,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20432,7 +20342,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20475,7 +20385,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -20802,7 +20712,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20818,7 +20728,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20834,7 +20744,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20850,7 +20760,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20866,7 +20776,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20881,9 +20791,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>337</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20891,7 +20799,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20902,7 +20810,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20911,7 +20819,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20923,7 +20831,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20931,7 +20839,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21027,7 +20935,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21070,7 +20978,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21397,7 +21305,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -21413,7 +21321,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -21429,7 +21337,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -21445,7 +21353,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -21461,7 +21369,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -21476,9 +21384,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -21486,7 +21392,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -21497,7 +21403,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -21506,7 +21412,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -21518,7 +21424,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -21526,7 +21432,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -21622,7 +21528,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -21665,7 +21571,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -21992,7 +21898,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22008,7 +21914,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22024,7 +21930,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22040,7 +21946,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22056,7 +21962,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22071,9 +21977,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22081,7 +21985,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22092,7 +21996,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22101,7 +22005,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22113,7 +22017,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22121,7 +22025,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22217,7 +22121,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22260,7 +22164,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -22587,7 +22491,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -22603,7 +22507,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -22619,7 +22523,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -22635,7 +22539,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -22651,7 +22555,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -22666,9 +22570,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -22676,7 +22578,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -22687,7 +22589,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -22696,7 +22598,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -22708,7 +22610,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -22716,7 +22618,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -22812,7 +22714,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -22855,7 +22757,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23238,7 +23140,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23254,7 +23156,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23270,7 +23172,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23286,7 +23188,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23302,7 +23204,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23317,9 +23219,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23327,7 +23227,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23338,7 +23238,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23347,7 +23247,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23359,7 +23259,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23463,7 +23363,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -23506,7 +23406,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -23833,7 +23733,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -23849,7 +23749,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -23865,7 +23765,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -23881,7 +23781,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -23897,7 +23797,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -23912,9 +23812,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -23922,7 +23820,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -23933,7 +23831,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -23942,7 +23840,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -23954,7 +23852,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -23962,7 +23860,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24058,7 +23956,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24101,7 +23999,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -24428,7 +24326,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -24444,7 +24342,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -24460,7 +24358,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -24476,7 +24374,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -24492,7 +24390,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -24507,9 +24405,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>90</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -24517,7 +24413,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -24528,7 +24424,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -24537,7 +24433,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -24549,7 +24445,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -24557,7 +24453,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -24653,7 +24549,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -24696,7 +24592,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25023,7 +24919,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25039,7 +24935,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25055,7 +24951,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25071,7 +24967,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25087,7 +24983,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25102,9 +24998,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>107</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25112,7 +25006,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25123,7 +25017,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25132,7 +25026,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25144,7 +25038,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25152,7 +25046,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25248,7 +25142,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25291,7 +25185,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -25618,7 +25512,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -25634,7 +25528,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -25650,7 +25544,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -25666,7 +25560,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -25682,7 +25576,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -25697,9 +25591,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -25707,7 +25599,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -25718,7 +25610,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -25727,7 +25619,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -25739,7 +25631,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -25747,7 +25639,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -25843,7 +25735,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -25886,7 +25778,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
